--- a/SoftwareLicense/wwwroot/Uploads/uploadTest.xlsx
+++ b/SoftwareLicense/wwwroot/Uploads/uploadTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-matthewlee\Documents\hkexApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AAEB71-E0EF-4586-8B18-A1E027783258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080CB65C-2D01-4419-B63B-8A29B1111CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF5E2F6F-222D-434F-A5A5-0A2137E51091}"/>
+    <workbookView xWindow="930" yWindow="30" windowWidth="26985" windowHeight="15570" xr2:uid="{FF5E2F6F-222D-434F-A5A5-0A2137E51091}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SoftwareName</t>
   </si>
@@ -63,48 +63,6 @@
     <t>LLL5</t>
   </si>
   <si>
-    <t>LLL6</t>
-  </si>
-  <si>
-    <t>LLL7</t>
-  </si>
-  <si>
-    <t>LLL8</t>
-  </si>
-  <si>
-    <t>LLL9</t>
-  </si>
-  <si>
-    <t>LLL10</t>
-  </si>
-  <si>
-    <t>LLL11</t>
-  </si>
-  <si>
-    <t>LLL12</t>
-  </si>
-  <si>
-    <t>LLL13</t>
-  </si>
-  <si>
-    <t>LLL14</t>
-  </si>
-  <si>
-    <t>LLL15</t>
-  </si>
-  <si>
-    <t>LLL16</t>
-  </si>
-  <si>
-    <t>LLL17</t>
-  </si>
-  <si>
-    <t>LLL18</t>
-  </si>
-  <si>
-    <t>LLL19</t>
-  </si>
-  <si>
     <t>SSS3</t>
   </si>
   <si>
@@ -112,132 +70,6 @@
   </si>
   <si>
     <t>SSS5</t>
-  </si>
-  <si>
-    <t>SSS6</t>
-  </si>
-  <si>
-    <t>SSS7</t>
-  </si>
-  <si>
-    <t>SSS8</t>
-  </si>
-  <si>
-    <t>SSS9</t>
-  </si>
-  <si>
-    <t>SSS10</t>
-  </si>
-  <si>
-    <t>SSS11</t>
-  </si>
-  <si>
-    <t>SSS12</t>
-  </si>
-  <si>
-    <t>SSS13</t>
-  </si>
-  <si>
-    <t>SSS14</t>
-  </si>
-  <si>
-    <t>SSS15</t>
-  </si>
-  <si>
-    <t>SSS16</t>
-  </si>
-  <si>
-    <t>SSS17</t>
-  </si>
-  <si>
-    <t>SSS18</t>
-  </si>
-  <si>
-    <t>SSS19</t>
-  </si>
-  <si>
-    <t>SSS20</t>
-  </si>
-  <si>
-    <t>LLL20</t>
-  </si>
-  <si>
-    <t>SSS21</t>
-  </si>
-  <si>
-    <t>LLL21</t>
-  </si>
-  <si>
-    <t>SSS22</t>
-  </si>
-  <si>
-    <t>LLL22</t>
-  </si>
-  <si>
-    <t>SSS23</t>
-  </si>
-  <si>
-    <t>LLL23</t>
-  </si>
-  <si>
-    <t>SSS24</t>
-  </si>
-  <si>
-    <t>LLL24</t>
-  </si>
-  <si>
-    <t>SSS25</t>
-  </si>
-  <si>
-    <t>LLL25</t>
-  </si>
-  <si>
-    <t>SSS26</t>
-  </si>
-  <si>
-    <t>LLL26</t>
-  </si>
-  <si>
-    <t>SSS27</t>
-  </si>
-  <si>
-    <t>LLL27</t>
-  </si>
-  <si>
-    <t>SSS28</t>
-  </si>
-  <si>
-    <t>LLL28</t>
-  </si>
-  <si>
-    <t>SSS29</t>
-  </si>
-  <si>
-    <t>LLL29</t>
-  </si>
-  <si>
-    <t>SSS30</t>
-  </si>
-  <si>
-    <t>LLL30</t>
-  </si>
-  <si>
-    <t>SSS31</t>
-  </si>
-  <si>
-    <t>LLL31</t>
-  </si>
-  <si>
-    <t>SSS32</t>
-  </si>
-  <si>
-    <t>LLL32</t>
-  </si>
-  <si>
-    <t>SSS33</t>
-  </si>
-  <si>
-    <t>LLL33</t>
   </si>
 </sst>
 </file>
@@ -299,8 +131,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A088488-38F3-4DED-B2DC-CC9AD4E53A13}" name="Table1" displayName="Table1" ref="A1:B34" totalsRowShown="0">
-  <autoFilter ref="A1:B34" xr:uid="{7A088488-38F3-4DED-B2DC-CC9AD4E53A13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A088488-38F3-4DED-B2DC-CC9AD4E53A13}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{7A088488-38F3-4DED-B2DC-CC9AD4E53A13}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0CDFC6D1-365E-4345-BEB9-61CCA9DED7ED}" name="SoftwareName"/>
     <tableColumn id="2" xr3:uid="{4A60FEC6-BD5C-493D-B4F2-6C3C0DC3BFE7}" name="LicenseName"/>
@@ -606,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD49127-3E3F-4561-BD9E-4E8D20B4AD57}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +476,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -652,7 +484,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -660,234 +492,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
